--- a/similarities/split_global/harmonic_similarity_timestamps_393.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_393.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:15.940000', '0:00:24.900000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:08.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=15.94</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:01:03.040000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:06.600000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=6.6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000'), ('0:04:32.560000', '0:04:34.520000')]</t>
+          <t>('0:00:16.840000', '0:00:24.560000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000'), ('0:00:58.350000', '0:01:04.070000')]</t>
+          <t>('0:01:14.900000', '0:01:33.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=272.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=58.35']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:17.160000', '0:00:19.520000')]</t>
+          <t>('0:01:58.780000', '0:02:02.740000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:06.980000', '0:00:15.900000')]</t>
+          <t>('0:00:24.280000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=118.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:51.420000', '0:00:55.540000')]</t>
+          <t>('0:00:21.900000', '0:00:52.440000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:19.840000', '0:00:25.560000')]</t>
+          <t>('0:00:45.580000', '0:00:59.100000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=51.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=21.9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=19.84']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#', 'A:min/E']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E:min']]</t>
+          <t>['G#:7/D#', 'C#/F', 'G#:7', 'C#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:11.420000')]</t>
+          <t>('0:01:43.380000', '0:01:57.340000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:29.983333', '0:00:35.300702')]</t>
+          <t>('0:00:44.060000', '0:00:47.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=103.38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=29.983333']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=44.06</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:7', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
+          <t>('0:01:30.128000', '0:01:37.445000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:01:00.854263', '0:01:06.566371')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:17.680000', '0:01:31.180000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=77.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=62.42']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F', 'F:7', 'Bb', 'B:dim7', 'F/5']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Db', 'Db:7', 'Gb', 'E:dim7/b3', 'Db/5']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:01.640000', '0:00:07.170000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:22.947687', '0:00:34.104875')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['B', 'A', 'F#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
+          <t>['D', 'C', 'A/3']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:55.760000')]</t>
+          <t>('0:01:06.854851', '0:01:11.522062')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:21.560000')]</t>
+          <t>('0:00:32.493000', '0:00:38.933000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=66.854851</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=32.493</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['B:maj', 'F#:9', 'B:maj/F#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['E', 'B:9', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:13.580000', '0:00:18.140000'), ('0:00:00.560000', '0:00:04.260000')]</t>
+          <t>('0:00:58.080000', '0:01:02.440000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:16.958000', '0:01:25.346000'), ('0:00:03.584000', '0:00:13.841000')]</t>
+          <t>('0:00:33.711833', '0:00:45.368251')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=13.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=58.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=76.958', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=3.584']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=33.711833</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:02:36.152000', '0:02:39.022000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:13.336043', '0:00:26.115071'), ('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:02.352018', '0:00:08.679455')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=145.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>jaah_65</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+          <t>('0:00:07.420000', '0:00:09.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+          <t>('0:00:12.630000', '0:00:16.560000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=119.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=7.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=12.63</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:13.057687')]</t>
+          <t>('0:00:18.783807', '0:00:24.845034')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
+          <t>('0:00:54.260000', '0:01:01.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D:min']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:41.773000', '0:01:48.586000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:52.674489', '0:00:57.422970')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=101.773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=52.674489']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
